--- a/htdocs/App/Controllers/Traspasos/7480FRC.xlsx
+++ b/htdocs/App/Controllers/Traspasos/7480FRC.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
@@ -31,27 +31,24 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>13-10-2017</t>
+    <t>12-12-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Jaume</t>
+    <t>Cristina</t>
   </si>
   <si>
     <t>Provisión</t>
   </si>
   <si>
-    <t>visa</t>
+    <t>efectivo</t>
   </si>
   <si>
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-10-13</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>LUIS MAURICE</t>
+    <t>BRAHIM MAQRANE</t>
   </si>
   <si>
     <t>No disponible</t>
@@ -1168,9 +1165,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
-      <c r="X9" s="56" t="s">
-        <v>10</v>
-      </c>
+      <c r="X9" s="56"/>
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
@@ -1276,17 +1271,17 @@
       </c>
       <c r="T13" s="62"/>
       <c r="U13" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" s="43">
         <v>4</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X13" s="43"/>
       <c r="Z13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="30"/>
       <c r="AE13" s="8"/>
@@ -1294,14 +1289,14 @@
     <row r="14" spans="1:43" customHeight="1" ht="15.75">
       <c r="A14" s="31"/>
       <c r="B14" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
@@ -1359,7 +1354,7 @@
     <row r="16" spans="1:43" customHeight="1" ht="15.75">
       <c r="A16" s="31"/>
       <c r="B16" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="57">
@@ -1380,7 +1375,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T16" s="60"/>
       <c r="U16" s="60"/>
@@ -1388,10 +1383,10 @@
       <c r="W16" s="60"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>12.4</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="30"/>
       <c r="AE16" s="8"/>
@@ -1416,7 +1411,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T17" s="60"/>
       <c r="U17" s="60"/>
@@ -1428,18 +1423,18 @@
         <v>0</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:43" customHeight="1" ht="15.75">
       <c r="A18" s="31"/>
       <c r="B18" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
@@ -1456,7 +1451,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T18" s="60"/>
       <c r="U18" s="60"/>
@@ -1467,7 +1462,7 @@
         <v>32</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" s="30"/>
     </row>
@@ -1491,7 +1486,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
@@ -1522,7 +1517,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T20" s="60"/>
       <c r="U20" s="60"/>
@@ -1536,13 +1531,13 @@
     <row r="21" spans="1:43" customHeight="1" ht="15.75">
       <c r="A21" s="31"/>
       <c r="B21" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -1597,11 +1592,11 @@
     <row r="23" spans="1:43" customHeight="1" ht="15.6">
       <c r="A23" s="31"/>
       <c r="B23" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>605111908</v>
+        <v>612555902</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -1659,11 +1654,11 @@
     <row r="25" spans="1:43" customHeight="1" ht="15.75">
       <c r="A25" s="31"/>
       <c r="B25" s="45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -1847,7 +1842,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
